--- a/biology/Botanique/Peter_Shaw_Green/Peter_Shaw_Green.xlsx
+++ b/biology/Botanique/Peter_Shaw_Green/Peter_Shaw_Green.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peter Shaw Green est un botaniste anglais né le 11 septembre 1920 et mort le 17 septembre 2009.
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Peter Shaw Green a été directeur-adjoint et conservateur de l'herbier des Jardins botaniques royaux de Kew.
 </t>
@@ -542,7 +556,9 @@
           <t>Voyages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Entre le 10 mai et le 18 juin 1978, avec M. John B. Simmons, administrateur des Jardins botaniques royaux, il a visité la Chine comme hôte de l'Academia sinica. M. Green a été auparavant membre du personnel du Jardin botanique royal d'Édimbourg de 1952 à 1961 et de l'arboretum Arnold de l’université Harvard de 1961 à 1966), deux instituts qui ont des liens particuliers avec la botanique de la Chine.
 </t>
@@ -573,7 +589,9 @@
           <t>Spécialités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On note, parmi les travaux de Peter Shaw Green, une importante révision du genre botanique Olea publié en 2002.
 </t>
